--- a/flows/EMLC_fund_flow_data.xlsx
+++ b/flows/EMLC_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3428"/>
+  <dimension ref="A1:B3442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34715,6 +34715,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3429">
+      <c r="A3429" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3437" t="n">
+        <v>24.8923</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3440" t="n">
+        <v>129.09209</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B3441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B3442" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
